--- a/Excel Data/CDREncashmentinput.xlsx
+++ b/Excel Data/CDREncashmentinput.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti5\IdeaProjects\QATeam\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -353,7 +353,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel Data/CDREncashmentinput.xlsx
+++ b/Excel Data/CDREncashmentinput.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>CREDIT.ACCT.NO</t>
   </si>
@@ -33,6 +34,9 @@
   </si>
   <si>
     <t>LDA0610297</t>
+  </si>
+  <si>
+    <t>CLK0601335</t>
   </si>
 </sst>
 </file>
@@ -353,7 +357,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -371,10 +375,52 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1005667626</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1000140984</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1005667626</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
